--- a/how_long_will_my_experiment_be.xlsx
+++ b/how_long_will_my_experiment_be.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\MILD-Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FBECC-A660-4CA1-AC30-3B17F2A72D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E929A-9941-4BE0-8B56-17AD7899B9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8205B74-23EB-4CC5-B833-D39C6739B0F9}"/>
   </bookViews>
@@ -216,8 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,9 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +569,7 @@
   <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,71 +581,71 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6"/>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
-        <v>2</v>
+      <c r="F3" s="1">
+        <v>1.8</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
-        <v>6</v>
+      <c r="F4" s="1">
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.85</v>
+      <c r="F5" s="1">
+        <v>0.6</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -656,18 +655,18 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6">
         <f>F3 +(F4*F5)</f>
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -684,19 +683,19 @@
         <f>SUM(C3:C6)</f>
         <v>60</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7">
-        <f>AVERAGE(6,10)</f>
-        <v>8</v>
+        <f>AVERAGE(9,13)</f>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7">
         <f>((I3*I4*F8)/60)+(I5*I6)</f>
-        <v>54.3</v>
+        <v>67.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -705,7 +704,7 @@
       </c>
       <c r="F8">
         <f>F3 + (F4*F5) + F7</f>
-        <v>15.1</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -714,7 +713,7 @@
       </c>
       <c r="I10">
         <f>C7+I7</f>
-        <v>114.3</v>
+        <v>127.66666666666667</v>
       </c>
     </row>
   </sheetData>
